--- a/src/test/resources/Scrapped_Recipes/Scrapped_Recipes_PtoT.xlsx
+++ b/src/test/resources/Scrapped_Recipes/Scrapped_Recipes_PtoT.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="92">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -79,7 +79,7 @@
     <t>25 mins</t>
   </si>
   <si>
-    <t>steam saute pressure cooker deep pan</t>
+    <t>Steam Saute Pressure Cooker Deep Pan</t>
   </si>
   <si>
     <t>Makes 4 servings</t>
@@ -91,10 +91,208 @@
     <t>Method Clean, wash and soak the dal for 2 hours. Drain, add the spinach, ginger, green chillies, turmeric powder and 3 cups of water and pressure cook for 2 whistles. Allow the steam to escape before opening the lid. Mash the dal spinach mixture with the back of a spoon lightly and keep aside. Heat the oil in a deep pan and add the cumin seeds. When the seeds crackle, add the bayleaves, cloves, red chillies and asafoetida. Stir for 15 seconds. Add the spinach mixture, chilli powder and coriander, mix well and simmer for 4 to 5 minutes, stirring once in between. Serve hot.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>https://www.tarladalal.com/palak-toovar-dal-know-your-green-leafy-vegetables-32768r</t>
+  </si>
+  <si>
+    <t>39653</t>
+  </si>
+  <si>
+    <t>Quick Strawberry Mousse Sundae</t>
+  </si>
+  <si>
+    <t>digestive biscuits,melted butter,strawberry crush,beaten whipped cream,edible coloured balls</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Fruit Based Indian Desserts Mousse Children's Day Indian Birthday Party Refrigerator Birthday Party Easy</t>
+  </si>
+  <si>
+    <t>Makes 2 glasses (2 glass )</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Have you ever met anybody who does not like strawberries? The same holds for this strawberry-dominated dessert too. A treat in a glass, this mousse of whipped cream and strawberry crush served upon a buttery biscuit base, is sure to be loved by all, for its succulent berry flavour and melt-in-the mouth creaminess. The Quick Strawberry Mousse Sundae has to be quick as the name suggests so, but you would never have imagined it would be so quick and easy!</t>
+  </si>
+  <si>
+    <t>For the biscuit mixture For the biscuit mixture Place the biscuits on a butter paper or a rolling board and crush to a coarse powder with the help of a rolling pin. Transfer the crushed biscuit powder into a bowl, add the melted butter and mix well. Keep aside to refrigerate for 15 to 20 minutes. How to proceed How to proceed Place ½ the biscuit mixture evenly in a serving glass and pour ½ the strawberry mousse evenly over it. Repeat step 1 to make 1 more glass. Refrigerate for 1 hour and serve chilled garnished with edible coloured balls.</t>
+  </si>
+  <si>
+    <t>Energy 771 calProtein 3.2 gCarbohydrates 88.5 gFiber 0 gFat 45.2 gCholesterol 27.5 mgSodium 132.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quick-strawberry-mousse-sundae-39653r</t>
+  </si>
+  <si>
+    <t>32707</t>
+  </si>
+  <si>
+    <t>radish chutney recipe | mooli ki chutney | healthy mooli chutney |</t>
+  </si>
+  <si>
+    <t>grated white radish (mooli),chopped mint leaves (phudina),chopped coriander (dhania),chopped green chillies,curd (dahi),salt</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>South Indian Chutney different kinds of Indian chutney Kebab Party Barbeque Party Indian Recipes Mixer Quick Chutneys Low Carb Diet</t>
+  </si>
+  <si>
+    <t>Makes 1.5 cups (21 tbsp )</t>
+  </si>
+  <si>
+    <t>radish chutney recipe | mooli ki chutney | healthy mooli chutney | with 21 amazing images. radish chutney recipe | mooli ki chutney | healthy mooli chutney is a unique chutney loaded with health benefits. Learn how to make mooli ki chutney. To make radish chutney, combine all the ingredients in a mixer and blend to a smooth mixture. Serve immediately or store refrigerated till use. Radish has a lingering flavour similar to other pungent ingredients like onion, ginger and garlic, but is surprisingly not commonly used to make chutneys. In mooli ki chutney, radish is combined with flavourful mint and coriander, and tangy curds, to make a chutney that is well-balanced in flavour, colour and texture. The radish in healthy mooli chutney has good amount of vitamin C in radishes is an antioxidant and possesses anti-inflammatory properties too. The mint is known for its cleansing effect, while coriander has antioxidants lutein and zeaxanthin which exhibit heart protective benefits. So whether you are a healthy individual or are suffering from diabetes or heart disease, you can include this chutney in your diet. This radish chutney makes a great accompaniment for all Indian starters, but can be innovatively used as a dressing for Salads, or a spread for multigrain bread and so on. Tips for radish chutney. 1. Do not add water for blending, as curd helps to get the necessary texture of the chutney. 2. Use this chutney within 2 days, else radish might release a strong odour. Enjoy radish chutney recipe | mooli ki chutney | healthy mooli chutney | with step by step photos.</t>
+  </si>
+  <si>
+    <t>For radish chutney For radish chutney To make radish chutney, combine all the ingredients in a mixer and blend to a smooth mixture. Serve the radish chutney immediately or store refrigerated till use.</t>
+  </si>
+  <si>
+    <t>Energy 7 calProtein 0.3 gCarbohydrates 0.5 gFiber 0.2 gFat 0.3 gCholesterol 0.8 mgSodium 2.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/radish-chutney-mooli-ki-chutney-32707r</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>Rajma, Bean Sprouts and Spring Onion Salad</t>
+  </si>
+  <si>
+    <t>soaked and cooked rajma (kidney beans),bean sprouts,chopped spring onion whites,greens,chopped tomatoes,lemon juice,salt</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>Low Calorie Indian Salad Wholesome Salads (Salads that make a meal) Italian Party Mexican Party Low Carb Diet High Fiber Potassium Rich</t>
+  </si>
+  <si>
+    <t>A scrumptious salad that combines the goodness of cooked rajma and bean sprouts with crunchy spring onions and tangy tomatoes. A dash of lemon juice further perks up this salad, making it a zesty treat for your palate! Enjoy the Rajma, Bean Sprouts and Spring Onion Salad chilled, to experience its truly juicy, crunchy texture. For a snacky meal have this salad topped on toasted bread slices or have it wrapped in a roti along with a drizzle of Achari Dip .</t>
+  </si>
+  <si>
+    <t>Method Combine all the ingredients in a deep bowl and toss well. Refrigerate for atleast 1 hour and serve chilled.</t>
+  </si>
+  <si>
+    <t>Energy 57 calProtein 3.6 gCarbohydrates 10.2 gFiber 1.6 gFat 0.3 gCholesterol 0 mgSodium 5.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-bean-sprouts-and-spring-onion-salad-760r</t>
+  </si>
+  <si>
+    <t>42442</t>
+  </si>
+  <si>
+    <t>Raspberry Banana Smoothie Recipe</t>
+  </si>
+  <si>
+    <t>raspberries,chopped bananas,chopped apple,tender coconut,ice cubes</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>Indian Milkshakes &amp; Smoothies Mixer Healthy Foods for Kids Marathoners, Endurance Athletes, Triathlete Vitamin C Rich Indian recipes Cancer Healthy Athletes, Triathlete Smoothies, Juices, Drinks</t>
+  </si>
+  <si>
+    <t>Makes 1 glass</t>
+  </si>
+  <si>
+    <t>Here’s a berry berry delicious smoothie that you must try! A thoughtful combination of fresh and tangy raspberries with sweet bananas and juicy apples in a base of coconut water, this smoothie has a very well-balanced flavour. Of course, the raspberry flavour is quite dominant, which is what makes this smoothie so unique and attractive. It’s a great way to catch up on the health benefits of raspberry when it is in season. This little berry, as you know, is an antioxidants food containing ellagic acid, which neutralises free radicals and prevents damage to cell membranes and other structures of the body. It also has the potential to prevent the proliferation of cancer cells and the growth of tumours in various parts of the body, including the colon. Eating three or more servings of raspberries per day may lower the risk of age-related macular degeneration (ARMD), which is the primary cause of vision loss in elderly people. You can prepare this smoothie and store it in the fridge for at least 3-4 hours.</t>
+  </si>
+  <si>
+    <t>Method Combine all the ingredients in a mixer and blend till smooth. Serve chilled.</t>
+  </si>
+  <si>
+    <t>Energy 147 calProtein 2.3 gCarbohydrates 31.2 gFiber 14.5 gFat 2 gCholesterol 0 mgSodium 26.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/raspberry-banana-smoothie-recipe-42442r</t>
+  </si>
+  <si>
+    <t>41321</t>
+  </si>
+  <si>
+    <t>Raw Papaya Pickle, Quick and Fresh Papaya Pickle</t>
+  </si>
+  <si>
+    <t>grated raw papaya,chopped garlic (lehsun),mustard seeds ( rai / sarson),chopped green chillies,salt,lemon juice</t>
+  </si>
+  <si>
+    <t>Gujarati Kachumber / Chutneys / Achar Light Salads Toss &amp; Mix Salads (No cooking) Pickles / Achar Indian Party Quick Pickles / Aachar</t>
+  </si>
+  <si>
+    <t>Makes 1 cup (14 tbsp )</t>
+  </si>
+  <si>
+    <t>raw papaya pickle recipe | instant raw papaya pickle | healthy raw papaya relish – oil free pickle | green papaya achar | with 13 amazing images. raw papaya pickle recipe | instant raw papaya pickle | healthy raw papaya relish – oil free pickle | green papaya achar is an instant pickle with loads of flavours to enjoy. Learn how to make green papaya achar. To make raw papaya pickle, combine the garlic, mustard seeds, green chillies and salt in the mortar and pestle and crush till coarse. Combine the papaya, garlic- mustard seeds coarse mixture and lemon juice in the deep bowl and mix well using your hands. Serve immediately. This novel instant raw papaya pickle is quick and easy but tastes fabulous. With its spicy, garlicky flavour, this instant pickle is sure to make you lick your fingers. Green papaya achar is very easy to make – just crush the taste giving ingredients in a mortal pestle and mix it with the grated papaya, and your pickle is ready to relish with any Indian meal. It can be stored in the fridge for 1 or 2 days and enjoyed as and when required. This healthy raw papaya relish – oil free pickle carries some health benefits too! Raw papaya and the lemon juice used in this pickle are a good source of vitamin C – a nutrient required to boost immunity and fight bacteria and viruses. The fibre in it along with its enzyme papain helps to clean your stomach and aid in digestion. It also lends a good amount of Vitamin A which helps to boost eyesight. Further garlic also does wonders by exhibiting its anti-inflammatory properties. With only 4 calories per tbsp. this raw papaya pickle can be enjoyed by healthy individuals to those having diabetes, heart problems and even those aiming weight loss. People with hypertension need to be cautious of the serving size of this pickle, due to the restriction in salt consumption. Tips for raw papaya pickle. 1. Prefer to grate the raw papaya thick for a good mouthfeel. 2. While this pickle can be stored, we recommend you consume it immediately as vitamin C is a volatile nutrient and some of it is lost on exposure to air for a long time. You can also try these recipes Quick Carrot and Capsicum Pickle and Instant Chilli Pickle. Enjoy raw papaya pickle recipe | instant raw papaya pickle | healthy raw papaya relish – oil free pickle | green papaya achar | with step by step photos.</t>
+  </si>
+  <si>
+    <t>For raw papaya pickle For raw papaya pickle Combine the raw papaya pickle garlic, mustard seeds, green chillies and salt in the mortar and pestle and crush till coarse. Combine the papaya, garlic- mustard seeds coarse mixture and lemon juice in the deep bowl and mix well using your hands. Serve the raw papaya pickle immediately. If you use it a few hours later, there will be a strong mustard taste.</t>
+  </si>
+  <si>
+    <t>Energy 4 calProtein 0.2 gCarbohydrates 1 gFiber 0.2 gFat 0 gCholesterol 0 mgSodium 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/raw-papaya-pickle-quick-and-fresh-papaya-pickle-41321r</t>
+  </si>
+  <si>
+    <t>4998</t>
+  </si>
+  <si>
+    <t>Tava Mushrooms</t>
+  </si>
+  <si>
+    <t>mushrooms (khumbh),plain flour (maida),onions,tomatoes,garam masala,chilli powder,coriander-cumin seeds (dhania-jeera) powder,dried fenugreek leaves (kasuri methi),oil,fresh cream,salt,ginger (adrak),cloves of garlic (lehsun),chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Indian Tawa</t>
+  </si>
+  <si>
+    <t>The spiced up mushroom with its perfect bite size - an ever-popular choice.</t>
+  </si>
+  <si>
+    <t>Main procedure Wash the mushrooms and cut in halves. Sprinkle the flour and keep aside. Heat the oil and fry the onions till brown. Add the ginger-garlic paste and fry again. Add the garam masala, chilli powder and coriander-cumin seed powder and fry again. Prepare tomato puree by putting the tomatoes in hot water for 10 minutes and then grating into a pulp. Add the tomato puree and fry again. Add the mushrooms, kasuri methi and salt and cook for a few minutes. Sprinkle a little water while cooking. Add the cream and mix well.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tava-mushrooms-4998r</t>
+  </si>
+  <si>
+    <t>22640</t>
+  </si>
+  <si>
+    <t>Thick White Sauce, Recipes Used for Baked Dishes</t>
+  </si>
+  <si>
+    <t>butter,plain flour (maida),milk,salt</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>3 mins</t>
+  </si>
+  <si>
+    <t>Italian Basic Indian Dips / Sauces Pan Non-stick Pan</t>
+  </si>
+  <si>
+    <t>Makes 0.75 cup (11 tbsp )</t>
+  </si>
+  <si>
+    <t>Bathe veggies and goodies in this Thick White Sauce, top with a little cheese and bake, to get lusciously creamy, cheesy, flavourful dishes! This basic recipe shows you how to make a slightly thicker white sauce, which is ideal for use in baked dishes. You can also arm yourself with other basic recipes like Basic Pizza Base or Bread Loaf .</t>
+  </si>
+  <si>
+    <t>Method Heat the butter in a broad non-stick pan, add the plain flour and cook on a slow flame for 30 seconds, while stirring continuously. Add the milk, salt and pepper powder, mix well and cook on a medium flame for 2 minutes, or till the sauce thickens, while stirring continuously. Use as required. Handy tip: Handy tip: If the sauce is to be used for later use, add a little milk, mix well and re-heat it.</t>
+  </si>
+  <si>
+    <t>Energy 34 calProtein 0.9 gCarbohydrates 1.8 gFiber 0 gFat 2.1 gCholesterol 5.6 mgSodium 12.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/thick-white-sauce-recipes-used-for-baked-dishes-22640r</t>
   </si>
 </sst>
 </file>
@@ -102,19 +300,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,32 +333,13 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-        <bgColor rgb="FFDBDBDB"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA5A5A5"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -213,19 +386,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFA5A5A5"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
@@ -257,36 +417,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,169 +737,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" ht="26.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="26.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2" t="s">
+      <c r="B1" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="79.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="79.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="66">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
+      <c r="B3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="66">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.4">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
+      <c r="B5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.4">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
+      <c r="B6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.4">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
+      <c r="B7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="26.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.4">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="26.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
+      <c r="B9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.4">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="41.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="41.4">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="39.6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
+      <c r="B11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="39.6">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="26.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
+      <c r="B12" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="26.4">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
+      <c r="B13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26.4">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B14" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -754,169 +1004,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" ht="26.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="26.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2" t="s">
+      <c r="B1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="79.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="79.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="66">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
+      <c r="B3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="66">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="26.4">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
+      <c r="B5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="26.4">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
+      <c r="B6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="26.4">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
+      <c r="B7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="26.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="26.4">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="26.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
+      <c r="B9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="26.4">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="41.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="41.4">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="39.6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
+      <c r="B11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.6">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="26.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
+      <c r="B12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="26.4">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
+      <c r="B13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="26.4">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -929,166 +1247,304 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5" ht="26.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="26.4">
-      <c r="A2" s="5"/>
+      <c r="C1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="79.2">
-      <c r="A3" s="5"/>
+      <c r="C2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="79.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="66">
-      <c r="A4" s="5"/>
+      <c r="C3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="66">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.4">
-      <c r="A5" s="5"/>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.4">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.4">
-      <c r="A6" s="5"/>
+      <c r="C5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.4">
-      <c r="A7" s="5"/>
+      <c r="C6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="26.4">
-      <c r="A9" s="5"/>
+      <c r="C8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.4">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="26.4">
-      <c r="A10" s="5"/>
+      <c r="C9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.4">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="41.4">
-      <c r="A11" s="5"/>
+      <c r="C10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="41.4">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="39.6">
-      <c r="A12" s="5"/>
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="39.6">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="26.4">
-      <c r="A13" s="5"/>
+      <c r="C12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="26.4">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26.4">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.4">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="C14" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1100,166 +1556,296 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:1" ht="26.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="26.4">
-      <c r="A2" s="5"/>
+      <c r="C1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="26.4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="79.2">
-      <c r="A3" s="5"/>
+      <c r="C2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="79.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="66">
-      <c r="A4" s="5"/>
+      <c r="C3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="66">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.4">
-      <c r="A5" s="5"/>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="26.4">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.4">
-      <c r="A6" s="5"/>
+      <c r="C5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="26.4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.4">
-      <c r="A7" s="5"/>
+      <c r="C6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="26.4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="26.4">
-      <c r="A9" s="5"/>
+      <c r="C8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="26.4">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="26.4">
-      <c r="A10" s="5"/>
+      <c r="C9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="26.4">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="41.4">
-      <c r="A11" s="5"/>
+      <c r="C10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="41.4">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="39.6">
-      <c r="A12" s="5"/>
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="39.6">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="26.4">
-      <c r="A13" s="5"/>
+      <c r="C12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="26.4">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="26.4">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.4">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="C14" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
